--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -154,18 +154,18 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -190,10 +190,10 @@
     <t>boost</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>hand</t>
@@ -1989,13 +1989,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6926406926406926</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="M29">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="N29">
         <v>0.95</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -2015,25 +2015,25 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6862745098039216</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L30">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -2041,25 +2041,25 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.6764705882352942</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -2067,25 +2067,25 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.6737588652482269</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L32">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="M32">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2301,25 +2301,25 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5878787878787879</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2327,13 +2327,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="10:17">
